--- a/SE M1.xlsx
+++ b/SE M1.xlsx
@@ -987,7 +987,7 @@
     <t xml:space="preserve">Be able to accept/reject and know terms and conditions specific to donations </t>
   </si>
   <si>
-    <t>I can know if there are any fees and charged and any terms &amp; conditions I should know before donating</t>
+    <t>I can know if there are any fees will be charged and any terms &amp; conditions I should know before donating</t>
   </si>
   <si>
     <t>Description</t>
